--- a/speedAnalysis.xlsx
+++ b/speedAnalysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3dd807f9fe277726/Faks/DualStack_TCP(one socket)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cisra\OneDrive\Faks\DualStack_TCP(one socket)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A58CE38-5DDD-4AC4-A327-2468CF0BA97F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{3A58CE38-5DDD-4AC4-A327-2468CF0BA97F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3C7475DA-B4F4-4FF3-B6F9-6C0808870EC1}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="0" windowWidth="27855" windowHeight="12810" xr2:uid="{3F8D819A-8EAF-45C0-9BE2-4DDA92E43A85}"/>
+    <workbookView xWindow="1890" yWindow="0" windowWidth="27855" windowHeight="12810" xr2:uid="{3F8D819A-8EAF-45C0-9BE2-4DDA92E43A85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -223,7 +223,7 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2518-460A-B4D7-317B4B913EC1}"/>
@@ -357,6 +357,7 @@
         <c:crossAx val="608539240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="15"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="608539240"/>
@@ -1080,16 +1081,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
